--- a/biology/Botanique/Prunus_cerasifera/Prunus_cerasifera.xlsx
+++ b/biology/Botanique/Prunus_cerasifera/Prunus_cerasifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Myrobolan ou Prunier-cerise (Prunus cerasifera), parfois appelé Prunier myrobolan ou Myrobalan, est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un arbre fruitier trouvé dans certaines parties de l'Europe et de l'Asie.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Prunier myrobolan est un arbuste ou un arbre petit à moyen, de 5 à 15 mètres de hauteur.
 Ses feuilles caduques de 4 à 6 cm de long sont vert brillant sur le dessus et mat au revers (pourpre foncé pour la forme Pissardii).
 Le myrobolan est l'un des premiers arbres européens en fleurs au printemps, souvent à partir de la mi-février. Les fleurs à cinq pétales sont blanches, ou roses chez les variétés à feuilles pourpre, et mesurent environ 2 cm de diamètre.
-Le fruit est une drupe de 2-3 cm de diamètre, ressemblant à la mirabelle. Cette prune jaune, rouge, violette ou noire[1], est comestible quoiqu'un peu aigre, aqueuse et fade. Elle arrive à maturité à partir de début juillet et jusqu'à la mi-septembre.
+Le fruit est une drupe de 2-3 cm de diamètre, ressemblant à la mirabelle. Cette prune jaune, rouge, violette ou noire, est comestible quoiqu'un peu aigre, aqueuse et fade. Elle arrive à maturité à partir de début juillet et jusqu'à la mi-septembre.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Prunier myrobolan doit son nom au grec μυροβάλανος (myrobalanos) littéralement « gland parfumé », composé de μύρον « parfum » et βάλανος «gland». À noter qu'on désigne aussi par le nom de « myrobolan » le fruit desséché du badamier. Le latin « myrobolanus » était employé aussi pour désigner une espèce particulière de fruit séché notamment la prune qui prit le nom de mirabella puis qui est passé en français sous la forme de mirabelle.
 </t>
@@ -576,7 +592,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est originaire du sud-est de l'Europe et du sud-ouest de l'Asie. Il est naturalisé de façon dispersée en France continentale (0-800 m.)[réf. souhaitée].
 </t>
@@ -607,11 +625,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Prunier myrobolan est utilisé comme porte-greffe pour différents types de pruniers tels que la Reine-claude, la quetsche ou la mirabelle car il se multiplie bien par semis, il drageonne peu, se développe même dans les terres pauvres et donne des arbres moyennement vigoureux.
 On ne l'utilise généralement pas comme porte-greffes pour l'abricotier car le point de greffe entre l’abricot et le Prunier myrobolan est fragile et sensible au vent. De plus, les abricotiers greffés sur ces francs entrent en production plus tard que les arbres greffés sur des porte-greffes d’abricots. On peut toutefois utiliser des francs de pruniers myrobolans dans les zones où le drainage est imparfait et où les francs d’abricotiers ne donneraient pas de bons résultats.
-Le Prunier myrobolan est une des 38 Fleurs du Docteur Bach. Il est classé dans la famille des émotions « peurs »[2].
+Le Prunier myrobolan est une des 38 Fleurs du Docteur Bach. Il est classé dans la famille des émotions « peurs ».
 </t>
         </is>
       </c>
@@ -640,7 +660,9 @@
           <t>Formes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La forme Pissardii ou Atropurpurea est couramment utilisée dans les jardins pour son feuillage pourpre. Cette variété a été découverte à Tabriz en Iran en 1880. Par hybridation avec Prunus pumila, elle a donné Prunus × cistena, qui est aussi couramment utilisé dans les jardins.[réf. nécessaire]
 			Fleurs, boutons et feuilles.
@@ -679,7 +701,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Armeniaca sogdiana Kudrj.
@@ -718,7 +742,7 @@
 Prunus orientalis (M. Pop.) Kudr. ex Vassilcz. (synonyme ambigu)
 Prunus pissardii Carr.
 Prunus sogdiana Vassilcz.
-Prunus sogdiana var. mirabilis (Sumn.) Bondar. ex O. N. Korovina[3]
+Prunus sogdiana var. mirabilis (Sumn.) Bondar. ex O. N. Korovina
 </t>
         </is>
       </c>
